--- a/input_data/2003/basic_posting_flows.milestones/products.static-data.admin.a6i.xlsx
+++ b/input_data/2003/basic_posting_flows.milestones/products.static-data.admin.a6i.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Code\chateauclaudia-labs\apodeixi\test_db\input_data\2003\basic_posting_flows.milestones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0508AF-86CF-4485-BACC-67E21D485367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945308E6-95FB-464E-8579-151D0A33C73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,7 +101,7 @@
     <t>Jack Henry</t>
   </si>
   <si>
-    <t>JackHenry</t>
+    <t>Alias de Enrique</t>
   </si>
 </sst>
 </file>
